--- a/ss.xlsx
+++ b/ss.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PDAC_liver_metastasis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PDAC_liver_metastasis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BA7ED4-3212-4147-AB96-74E4DDBFEB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409A1F48-14F6-41B1-990F-E34246737599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4368" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4368" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>sample_id</t>
   </si>
@@ -62,6 +63,18 @@
   </si>
   <si>
     <t>timepoint</t>
+  </si>
+  <si>
+    <t>seurat_cluster</t>
+  </si>
+  <si>
+    <t>cell_type</t>
+  </si>
+  <si>
+    <t>MOM</t>
+  </si>
+  <si>
+    <t>KC</t>
   </si>
 </sst>
 </file>
@@ -364,7 +377,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -440,4 +453,111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2CB0D5-E3F8-4E19-B34B-F54DC41D3E17}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>